--- a/_xlsx设计/format.xlsx
+++ b/_xlsx设计/format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,10 +230,6 @@
   </si>
   <si>
     <t>xiaosan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
@@ -879,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,10 +946,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -967,10 +960,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1032,7 +1025,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/_xlsx设计/format.xlsx
+++ b/_xlsx设计/format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,68 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类名:X_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举名:E_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,62 +49,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>变量值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ONCE</t>
-  </si>
-  <si>
-    <t>ROUND</t>
-  </si>
-  <si>
-    <t>CYCLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往返</t>
-  </si>
-  <si>
-    <t>循环</t>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继承类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类名:XName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,74 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;CardType&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;Player&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,Player&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaosan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +74,61 @@
   </si>
   <si>
     <t>数据表文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Var2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量2</t>
+  </si>
+  <si>
+    <t>##class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THREE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,191 +564,70 @@
     <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5">
+        <v>2222</v>
+      </c>
+      <c r="C5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>176</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5">
-        <v>11</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD5">
-        <v>1</v>
-      </c>
-      <c r="AE5">
-        <v>1</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5">
-        <v>10</v>
+      <c r="B6">
+        <v>33333</v>
+      </c>
+      <c r="C6">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
@@ -873,203 +639,142 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A8:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/_xlsx设计/format.xlsx
+++ b/_xlsx设计/format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,71 @@
   <si>
     <t>##enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaogang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstFloat</t>
+  </si>
+  <si>
+    <t>float=3.141527</t>
+  </si>
+  <si>
+    <t>常量浮点值</t>
   </si>
 </sst>
 </file>
@@ -527,27 +592,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="9" max="9" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
@@ -564,7 +625,7 @@
     <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -574,8 +635,35 @@
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -585,8 +673,23 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -597,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -607,8 +710,23 @@
       <c r="C4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -618,8 +736,26 @@
       <c r="C5">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -641,13 +777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -719,6 +856,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>28</v>

--- a/_xlsx设计/format.xlsx
+++ b/_xlsx设计/format.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="define" sheetId="2" r:id="rId2"/>
+    <sheet name="数据导出语言与平台适配" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,13 +196,37 @@
   </si>
   <si>
     <t>常量浮点值</t>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csharp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +256,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,10 +317,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -777,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -930,4 +963,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>